--- a/Assets/Excel/blockstage.xlsx
+++ b/Assets/Excel/blockstage.xlsx
@@ -8,29 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\block\block2\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E863A6-0D6F-4308-9482-A1D4F2100DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4547FA57-939C-4A23-8E6C-6D306F8C39F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="9" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="仕様" sheetId="6" r:id="rId2"/>
-    <sheet name="1-1" sheetId="2" r:id="rId3"/>
-    <sheet name="1-2" sheetId="3" r:id="rId4"/>
-    <sheet name="1-3" sheetId="20" r:id="rId5"/>
-    <sheet name="1-4" sheetId="7" r:id="rId6"/>
-    <sheet name="1-5" sheetId="8" r:id="rId7"/>
-    <sheet name="1-6" sheetId="10" r:id="rId8"/>
-    <sheet name="1-7" sheetId="11" r:id="rId9"/>
-    <sheet name="1-8「」" sheetId="4" r:id="rId10"/>
-    <sheet name="1-9" sheetId="12" r:id="rId11"/>
-    <sheet name="1-10" sheetId="13" r:id="rId12"/>
-    <sheet name="1-11" sheetId="14" r:id="rId13"/>
-    <sheet name="1-12" sheetId="15" r:id="rId14"/>
-    <sheet name="1-13" sheetId="16" r:id="rId15"/>
-    <sheet name="1-14" sheetId="22" r:id="rId16"/>
-    <sheet name="1-15" sheetId="23" r:id="rId17"/>
-    <sheet name="2-1" sheetId="24" r:id="rId18"/>
+    <sheet name="0-1" sheetId="25" r:id="rId3"/>
+    <sheet name="0-2" sheetId="26" r:id="rId4"/>
+    <sheet name="1-1" sheetId="2" r:id="rId5"/>
+    <sheet name="1-2" sheetId="3" r:id="rId6"/>
+    <sheet name="1-3" sheetId="20" r:id="rId7"/>
+    <sheet name="1-4" sheetId="7" r:id="rId8"/>
+    <sheet name="1-5" sheetId="8" r:id="rId9"/>
+    <sheet name="1-6" sheetId="10" r:id="rId10"/>
+    <sheet name="1-7" sheetId="11" r:id="rId11"/>
+    <sheet name="1-8「」" sheetId="4" r:id="rId12"/>
+    <sheet name="1-9" sheetId="12" r:id="rId13"/>
+    <sheet name="1-10" sheetId="13" r:id="rId14"/>
+    <sheet name="1-11" sheetId="14" r:id="rId15"/>
+    <sheet name="1-12" sheetId="15" r:id="rId16"/>
+    <sheet name="1-13" sheetId="16" r:id="rId17"/>
+    <sheet name="1-14" sheetId="22" r:id="rId18"/>
+    <sheet name="1-15" sheetId="23" r:id="rId19"/>
+    <sheet name="2-1" sheetId="24" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="46">
   <si>
     <t>奈落</t>
     <rPh sb="0" eb="2">
@@ -811,7 +813,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -935,6 +937,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,15 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,34 +1384,34 @@
       </c>
     </row>
     <row r="15" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
       <c r="AB15" s="4"/>
       <c r="AC15" t="s">
         <v>8</v>
@@ -1432,10 +1428,837 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88B142F-9284-472C-9695-BC786B09546E}">
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16">
+        <f>E13+F13*2</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C16))*ROW($A$1:INDIRECT($C16)))</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="23" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C16))*COLUMN($A$1:INDIRECT($C16)))</f>
+        <v>11</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="J14" s="5"/>
+      <c r="X14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="23" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C16))*ROW($A$1:INDIRECT($C16)))</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="23" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C16))*COLUMN($A$1:INDIRECT($C16)))</f>
+        <v>15</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="J15" s="8"/>
+      <c r="O15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$V$12</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="36"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="J17" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785CCA4E-8CED-4FF5-98A2-22C35D89111F}">
+  <dimension ref="A1:AF19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>32</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="T4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="L5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA8" s="6"/>
+      <c r="AC8" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC9" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T12" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Q13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16">
+        <f>E15+F15*2</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" s="33">
+        <v>5</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="O15" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>7</v>
+      </c>
+      <c r="D16" s="23" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" t="s">
+        <v>2</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>7</v>
+      </c>
+      <c r="D17" s="23" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>24</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="J17" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AF$14</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="X18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D768B77E-E016-478E-B6EF-7E3026994E65}">
   <dimension ref="A1:AM19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -1831,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" s="33">
@@ -1867,7 +2690,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>30</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -1899,14 +2721,13 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>33</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -1914,8 +2735,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AM$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:10" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1937,7 +2756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F33788-2187-4BD5-96CF-EFA60583B551}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
@@ -2195,7 +3014,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" s="33">
@@ -2216,7 +3035,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>7</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -2254,7 +3072,6 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>20</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="6"/>
       <c r="K17" t="s">
@@ -2268,7 +3085,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -2276,8 +3093,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$Z$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="J18" s="7" t="s">
         <v>3</v>
@@ -2308,7 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9054FBF-C640-433A-92B4-C69D43FEB674}">
   <dimension ref="A1:X20"/>
   <sheetViews>
@@ -2551,7 +3366,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="44">
+      <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" s="33">
@@ -2571,7 +3386,6 @@
         <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>8</v>
       </c>
-      <c r="E15" s="44"/>
       <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
@@ -2587,11 +3401,10 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>16</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:24" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="22"/>
@@ -2599,8 +3412,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$V$13</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="5"/>
     </row>
@@ -2668,7 +3479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43421CA-529A-4498-896B-701F2CE50211}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
@@ -3080,7 +3891,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" s="33">
@@ -3100,7 +3911,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="Q16" s="14" t="s">
         <v>37</v>
@@ -3122,12 +3932,11 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>7</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:18" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -3135,8 +3944,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$Z$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="G18" s="39" t="s">
         <v>10</v>
@@ -3197,7 +4004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68DBBC3-D35D-4494-8CAB-31F92B1F911B}">
   <dimension ref="A1:Y19"/>
   <sheetViews>
@@ -3396,7 +4203,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" s="33">
@@ -3429,7 +4236,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>11</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -3461,7 +4267,6 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>11</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="6"/>
       <c r="K17" t="s">
@@ -3469,7 +4274,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -3477,8 +4282,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$T$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="J18" s="7" t="s">
         <v>3</v>
@@ -3503,7 +4306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E96C09A-1AFF-4656-9AD7-D60D40D60C36}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
@@ -3865,7 +4668,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="44">
+      <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" s="33">
@@ -3891,7 +4694,6 @@
         <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>5</v>
       </c>
-      <c r="E15" s="44"/>
       <c r="F15" s="33"/>
       <c r="J15" s="5"/>
       <c r="S15" s="14" t="s">
@@ -3920,7 +4722,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>31</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -3940,7 +4741,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="22"/>
@@ -3948,8 +4749,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AJ$13</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="6"/>
       <c r="K17" t="s">
@@ -3978,7 +4777,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC821ABD-37EF-4E8E-9C3B-9271B98433B3}">
   <dimension ref="A1:AI19"/>
   <sheetViews>
@@ -4264,7 +5063,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" s="33">
@@ -4291,7 +5090,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>28</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -4329,7 +5127,6 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>30</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="6"/>
       <c r="K17" t="s">
@@ -4337,7 +5134,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -4345,8 +5142,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AI$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="J18" s="7" t="s">
         <v>3</v>
@@ -4371,7 +5166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F9CE23-CF42-44D4-BB30-38DAFA8E6E95}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
@@ -5099,7 +5894,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="44">
+      <c r="E17">
         <v>8</v>
       </c>
       <c r="F17" s="33">
@@ -5132,7 +5927,6 @@
         <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
         <v>38</v>
       </c>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="J18" s="6"/>
       <c r="K18" t="s">
@@ -5158,14 +5952,13 @@
         <f t="array" aca="1" ref="D19" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
         <v>7</v>
       </c>
-      <c r="E19" s="44"/>
       <c r="F19" s="33"/>
       <c r="J19" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="22"/>
@@ -5173,8 +5966,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AE$16</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5188,903 +5979,6 @@
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA986D01-453F-4167-9E98-0CE9A780F858}">
-  <dimension ref="A1:AJ18"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25"/>
-      <c r="B1">
-        <f>MATCH("E",C1:CG1,0)+2</f>
-        <v>36</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>MATCH("E",A3:A50,0)+2</f>
-        <v>14</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="Z3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W4" s="6"/>
-      <c r="Z4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI4" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF5" s="5"/>
-      <c r="AI5" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF6" s="8"/>
-      <c r="AI6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="P7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF7" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="L8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF8" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="P9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="6"/>
-      <c r="AA9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH9" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI9" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI10" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE11" s="6"/>
-      <c r="AF11" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI11" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE12" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF12" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI12" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI13" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16">
-        <f>E15+F15*2</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="X15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="5"/>
-    </row>
-    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" cm="1">
-        <f t="array" ref="C16">SUMPRODUCT((仕様!O11=$A$1:AF13)*ROW($A$1:AF13))</f>
-        <v>9</v>
-      </c>
-      <c r="D16" s="22" cm="1">
-        <f t="array" ref="D16">SUMPRODUCT((仕様!O11=$A$1:AF13)*COLUMN($A$1:AF13))</f>
-        <v>22</v>
-      </c>
-      <c r="J16" s="8"/>
-      <c r="O16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="8"/>
-      <c r="AD16" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" cm="1">
-        <f t="array" ref="C17">SUMPRODUCT((仕様!O12=$A$1:AF13)*ROW($A$1:AF13))</f>
-        <v>9</v>
-      </c>
-      <c r="D17" s="22" cm="1">
-        <f t="array" ref="D17">SUMPRODUCT((仕様!O12=$A$1:AF14)*COLUMN($A$1:AF14))</f>
-        <v>29</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" t="s">
-        <v>2</v>
-      </c>
-      <c r="X17" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB17" s="6"/>
-    </row>
-    <row r="18" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB18" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -6172,34 +6066,34 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -6238,14 +6132,14 @@
       </c>
     </row>
     <row r="13" spans="1:26" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43">
         <v>9</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="23" t="s">
         <v>30</v>
       </c>
@@ -6308,13 +6202,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="17"/>
-      <c r="E17" s="44">
+      <c r="E17">
         <v>8</v>
       </c>
       <c r="F17" s="33">
         <v>3</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="41" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6331,9 +6225,8 @@
         <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="41" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6350,11 +6243,10 @@
         <f t="array" aca="1" ref="D19" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="44"/>
       <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B20" s="22"/>
@@ -6362,8 +6254,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -6390,7 +6280,1512 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA986D01-453F-4167-9E98-0CE9A780F858}">
+  <dimension ref="A1:AJ18"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="8"/>
+      <c r="S3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="8"/>
+      <c r="Z3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI3" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="Z4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AI4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF5" s="5"/>
+      <c r="AI5" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF6" s="8"/>
+      <c r="AI6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF7" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="L8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="O8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF8" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="P9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="6"/>
+      <c r="AA9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH9" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI10" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="T12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="W12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF12" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI12" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16">
+        <f>E15+F15*2</f>
+        <v>14</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:36" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" cm="1">
+        <f t="array" ref="C16">SUMPRODUCT((仕様!O11=$A$1:AF13)*ROW($A$1:AF13))</f>
+        <v>9</v>
+      </c>
+      <c r="D16" s="22" cm="1">
+        <f t="array" ref="D16">SUMPRODUCT((仕様!O11=$A$1:AF13)*COLUMN($A$1:AF13))</f>
+        <v>22</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="O16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="8"/>
+      <c r="AD16" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23" cm="1">
+        <f t="array" ref="C17">SUMPRODUCT((仕様!O12=$A$1:AF13)*ROW($A$1:AF13))</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="22" cm="1">
+        <f t="array" ref="D17">SUMPRODUCT((仕様!O12=$A$1:AF14)*COLUMN($A$1:AF14))</f>
+        <v>29</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB17" s="6"/>
+    </row>
+    <row r="18" spans="1:29" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B924E1-1679-4C93-BC4D-6902A104DF4E}">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16">
+        <f>E15+F15*2</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="33">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="S15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>11</v>
+      </c>
+      <c r="D16" s="23" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="J16" s="8"/>
+      <c r="X16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="23" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>16</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$V$14</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F3FEF6-85C5-48C7-8389-59C246D58033}">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A50,0)+2</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M7" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="5"/>
+      <c r="M8" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="8"/>
+      <c r="H9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="6"/>
+      <c r="M10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="16">
+        <f>E15+F15*2</f>
+        <v>5</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="33">
+        <v>2</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="S15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>11</v>
+      </c>
+      <c r="D16" s="23" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="J16" s="8"/>
+      <c r="X16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="23" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
+        <v>10</v>
+      </c>
+      <c r="D17" s="23" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
+        <v>17</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" t="s">
+        <v>2</v>
+      </c>
+      <c r="X17" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$V$14</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="J18" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D301E9F-E74A-4492-96C3-267CEE5E0CCE}">
   <dimension ref="A1:AG19"/>
   <sheetViews>
@@ -6675,7 +8070,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>7</v>
       </c>
       <c r="F15" s="33">
@@ -6711,7 +8106,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>5</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="J16" s="8"/>
       <c r="X16" s="3" t="s">
@@ -6734,7 +8128,6 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>29</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="G17" s="39" t="s">
         <v>10</v>
@@ -6754,7 +8147,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -6762,8 +8155,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AG$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="J18" s="7" t="s">
         <v>3</v>
@@ -6788,7 +8179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62045BA4-09BE-4D40-A1A3-828EA1B1B337}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
@@ -7146,7 +8537,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="44">
+      <c r="E14">
         <v>8</v>
       </c>
       <c r="F14" s="33">
@@ -7173,7 +8564,6 @@
         <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>3</v>
       </c>
-      <c r="E15" s="44"/>
       <c r="F15" s="33"/>
       <c r="J15" s="8"/>
       <c r="O15" s="12" t="s">
@@ -7205,7 +8595,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>25</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="39" t="s">
         <v>10</v>
@@ -7225,7 +8614,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="22"/>
@@ -7233,8 +8622,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AE$13</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="7" t="s">
         <v>3</v>
@@ -7259,7 +8646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C08F5BA-FD2A-442A-A00C-05B63581E12D}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
@@ -7473,7 +8860,7 @@
         <v>6</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="44">
+      <c r="E14">
         <v>4</v>
       </c>
       <c r="F14" s="33">
@@ -7499,7 +8886,6 @@
         <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>12</v>
       </c>
-      <c r="E15" s="44"/>
       <c r="F15" s="33"/>
       <c r="J15" s="5"/>
       <c r="R15" s="14" t="s">
@@ -7528,7 +8914,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>12</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -7548,7 +8933,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="22"/>
@@ -7556,8 +8941,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$W$13</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="6"/>
       <c r="K17" t="s">
@@ -7586,7 +8969,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A03E881-7663-4E7C-92AF-E2DC20180BE7}">
   <dimension ref="A1:AK18"/>
   <sheetViews>
@@ -7971,7 +9354,7 @@
         <v>14</v>
       </c>
       <c r="D14" s="17"/>
-      <c r="E14" s="44">
+      <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" s="33">
@@ -7998,7 +9381,6 @@
         <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>4</v>
       </c>
-      <c r="E15" s="44"/>
       <c r="F15" s="33"/>
       <c r="J15" s="8"/>
       <c r="O15" s="12" t="s">
@@ -8030,7 +9412,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C17))*COLUMN($A$1:INDIRECT($C17)))</f>
         <v>29</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -8050,7 +9431,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B17" s="22"/>
@@ -8058,8 +9439,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AK$13</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="7" t="s">
         <v>3</v>
@@ -8084,7 +9463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05A0F2C-C505-4B55-A957-0EB9E966CE2B}">
   <dimension ref="A1:AC19"/>
   <sheetViews>
@@ -8310,7 +9689,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="17"/>
-      <c r="E15" s="44">
+      <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" s="33">
@@ -8340,7 +9719,6 @@
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>16</v>
       </c>
-      <c r="E16" s="44"/>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
         <v>10</v>
@@ -8372,7 +9750,6 @@
         <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
         <v>16</v>
       </c>
-      <c r="E17" s="44"/>
       <c r="F17" s="33"/>
       <c r="J17" s="7" t="s">
         <v>3</v>
@@ -8385,7 +9762,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
       <c r="B18" s="22"/>
@@ -8393,843 +9770,6 @@
         <f>ADDRESS($A$2,$B$1)</f>
         <v>$AC$14</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="33"/>
-      <c r="X18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88B142F-9284-472C-9695-BC786B09546E}">
-  <dimension ref="A1:Y17"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25"/>
-      <c r="B1">
-        <f>MATCH("E",C1:CG1,0)+2</f>
-        <v>22</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>MATCH("E",A3:A50,0)+2</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="J7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16">
-        <f>E13+F13*2</f>
-        <v>6</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="44">
-        <v>4</v>
-      </c>
-      <c r="F13" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C16))*ROW($A$1:INDIRECT($C16)))</f>
-        <v>6</v>
-      </c>
-      <c r="D14" s="23" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C16))*COLUMN($A$1:INDIRECT($C16)))</f>
-        <v>11</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="33"/>
-      <c r="J14" s="5"/>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="23" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C16))*ROW($A$1:INDIRECT($C16)))</f>
-        <v>6</v>
-      </c>
-      <c r="D15" s="23" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C16))*COLUMN($A$1:INDIRECT($C16)))</f>
-        <v>15</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="33"/>
-      <c r="J15" s="8"/>
-      <c r="O15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" t="str">
-        <f>ADDRESS($A$2,$B$1)</f>
-        <v>$V$12</v>
-      </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="38"/>
-      <c r="J17" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785CCA4E-8CED-4FF5-98A2-22C35D89111F}">
-  <dimension ref="A1:AF19"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25"/>
-      <c r="B1">
-        <f>MATCH("E",C1:CG1,0)+2</f>
-        <v>32</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <f>MATCH("E",A3:A50,0)+2</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="5"/>
-      <c r="T4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="L5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC7" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="6"/>
-      <c r="AC8" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC9" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="I10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC10" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U11" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="T12" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="Q13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="16">
-        <f>E15+F15*2</f>
-        <v>14</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="44">
-        <v>4</v>
-      </c>
-      <c r="F15" s="33">
-        <v>5</v>
-      </c>
-      <c r="J15" s="8"/>
-      <c r="O15" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" t="s">
-        <v>17</v>
-      </c>
-      <c r="T15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="U15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
-        <v>7</v>
-      </c>
-      <c r="D16" s="23" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
-        <v>14</v>
-      </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" t="s">
-        <v>2</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="23" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
-        <v>7</v>
-      </c>
-      <c r="D17" s="23" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
-        <v>24</v>
-      </c>
-      <c r="E17" s="44"/>
-      <c r="F17" s="33"/>
-      <c r="J17" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23" t="str">
-        <f>ADDRESS($A$2,$B$1)</f>
-        <v>$AF$14</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
       <c r="F18" s="33"/>
       <c r="X18" s="15" t="s">
         <v>28</v>

--- a/Assets/Excel/blockstage.xlsx
+++ b/Assets/Excel/blockstage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\block\block2\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4547FA57-939C-4A23-8E6C-6D306F8C39F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B40816-DAB2-4263-94D4-7A062399D4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="18" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2259,7 +2259,7 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2637,12 +2637,6 @@
         <v>44</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="X14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="15" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="40" t="s">
@@ -2670,12 +2664,6 @@
       <c r="T15" t="s">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:39" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="34" t="s">
@@ -2684,11 +2672,11 @@
       <c r="B16" s="22"/>
       <c r="C16" s="23" cm="1">
         <f t="array" aca="1" ref="C16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*ROW($A$1:INDIRECT($C18)))</f>
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D16" s="23" cm="1">
         <f t="array" aca="1" ref="D16" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C18))*COLUMN($A$1:INDIRECT($C18)))</f>
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="11" t="s">
@@ -2701,14 +2689,14 @@
       <c r="K16" t="s">
         <v>2</v>
       </c>
-      <c r="X16" s="15" t="s">
-        <v>28</v>
+      <c r="X16" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="Y16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="35" t="s">
         <v>7</v>
       </c>
@@ -2725,8 +2713,14 @@
       <c r="J17" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="X17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34" t="s">
         <v>43</v>
       </c>
@@ -2736,8 +2730,14 @@
         <v>$AM$14</v>
       </c>
       <c r="F18" s="33"/>
-    </row>
-    <row r="19" spans="1:10" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37" t="s">
@@ -5170,8 +5170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F9CE23-CF42-44D4-BB30-38DAFA8E6E95}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11:AA11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19:V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5877,14 +5877,8 @@
       <c r="T16" t="s">
         <v>0</v>
       </c>
-      <c r="X16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="40" t="s">
         <v>9</v>
       </c>
@@ -5907,39 +5901,27 @@
         <v>1</v>
       </c>
       <c r="J17" s="8"/>
-      <c r="X17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="23" cm="1">
         <f t="array" aca="1" ref="C18" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C20))*ROW($A$1:INDIRECT($C20)))</f>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D18" s="23" cm="1">
         <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F18" s="33"/>
       <c r="J18" s="6"/>
       <c r="K18" t="s">
         <v>2</v>
       </c>
-      <c r="X18" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="19" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="35" t="s">
         <v>7</v>
       </c>
@@ -5956,8 +5938,14 @@
       <c r="J19" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="T19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="34" t="s">
         <v>43</v>
       </c>
@@ -5967,8 +5955,14 @@
         <v>$AE$16</v>
       </c>
       <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:25" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="36"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37" t="s">
@@ -5979,6 +5973,12 @@
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
+      <c r="T21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7464,7 +7464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78F3FEF6-85C5-48C7-8389-59C246D58033}">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/blockstage.xlsx
+++ b/Assets/Excel/blockstage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\block\block2\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B40816-DAB2-4263-94D4-7A062399D4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2DCED6-374E-4D40-88F1-60F31582BF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="18" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="19" xr2:uid="{BD46CB91-CAB7-47A3-ABB8-3EC07075F154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,15 @@
     <sheet name="1-6" sheetId="10" r:id="rId10"/>
     <sheet name="1-7" sheetId="11" r:id="rId11"/>
     <sheet name="1-8「」" sheetId="4" r:id="rId12"/>
-    <sheet name="1-9" sheetId="12" r:id="rId13"/>
-    <sheet name="1-10" sheetId="13" r:id="rId14"/>
-    <sheet name="1-11" sheetId="14" r:id="rId15"/>
-    <sheet name="1-12" sheetId="15" r:id="rId16"/>
-    <sheet name="1-13" sheetId="16" r:id="rId17"/>
-    <sheet name="1-14" sheetId="22" r:id="rId18"/>
-    <sheet name="1-15" sheetId="23" r:id="rId19"/>
-    <sheet name="2-1" sheetId="24" r:id="rId20"/>
+    <sheet name="2-1" sheetId="12" r:id="rId13"/>
+    <sheet name="2-2" sheetId="13" r:id="rId14"/>
+    <sheet name="2-3" sheetId="14" r:id="rId15"/>
+    <sheet name="2-4" sheetId="15" r:id="rId16"/>
+    <sheet name="2-5" sheetId="16" r:id="rId17"/>
+    <sheet name="2-6" sheetId="22" r:id="rId18"/>
+    <sheet name="2-7" sheetId="23" r:id="rId19"/>
+    <sheet name="2-8" sheetId="27" r:id="rId20"/>
+    <sheet name="2-" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="46">
   <si>
     <t>奈落</t>
     <rPh sb="0" eb="2">
@@ -2259,7 +2260,7 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2761,7 +2762,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3011,14 +3012,14 @@
       <c r="B15" s="17"/>
       <c r="C15" s="16">
         <f>E15+F15*2</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F15" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -3128,7 +3129,7 @@
   <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3363,14 +3364,14 @@
       <c r="B14" s="17"/>
       <c r="C14" s="16">
         <f>E14+F14*2</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F14" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
@@ -3483,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43421CA-529A-4498-896B-701F2CE50211}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3888,11 +3889,11 @@
       <c r="B15" s="17"/>
       <c r="C15" s="16">
         <f>E15+F15*2</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F15" s="33">
         <v>3</v>
@@ -4009,7 +4010,7 @@
   <dimension ref="A1:Y19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="A14:F19"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4200,14 +4201,14 @@
       <c r="B15" s="17"/>
       <c r="C15" s="16">
         <f>E15+F15*2</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F15" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" s="5"/>
       <c r="R15" s="14" t="s">
@@ -4311,7 +4312,7 @@
   <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4665,14 +4666,14 @@
       <c r="B14" s="17"/>
       <c r="C14" s="16">
         <f>E14+F14*2</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>4</v>
@@ -4782,7 +4783,7 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9:AE9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5060,14 +5061,14 @@
       <c r="B15" s="17"/>
       <c r="C15" s="16">
         <f>E15+F15*2</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5"/>
       <c r="X15" s="3" t="s">
@@ -5170,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F9CE23-CF42-44D4-BB30-38DAFA8E6E95}">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19:V21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5885,14 +5886,14 @@
       <c r="B17" s="17"/>
       <c r="C17" s="16">
         <f>E17+F17*2</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" s="33">
         <v>8</v>
-      </c>
-      <c r="F17" s="33">
-        <v>3</v>
       </c>
       <c r="G17" s="11" t="s">
         <v>10</v>
@@ -6281,6 +6282,185 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA0276E-2FDB-42D6-81EE-1F22FC8CC949}">
+  <dimension ref="A1:AE21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.5" defaultRowHeight="28.35" customHeight="1" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="4.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25"/>
+      <c r="B1">
+        <f>MATCH("E",C1:CG1,0)+2</f>
+        <v>31</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <f>MATCH("E",A3:A53,0)+2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:31" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="O16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="16">
+        <f>E17+F17*2</f>
+        <v>25</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" s="33">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C20))*ROW($A$1:INDIRECT($C20)))</f>
+        <v>10</v>
+      </c>
+      <c r="D18" s="23" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">SUMPRODUCT((仕様!$O$11=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="J18" s="6"/>
+      <c r="K18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="23" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C20))*ROW($A$1:INDIRECT($C20)))</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="23" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">SUMPRODUCT((仕様!$O$12=$A$1:INDIRECT($C20))*COLUMN($A$1:INDIRECT($C20)))</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="J19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="28.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23" t="str">
+        <f>ADDRESS($A$2,$B$1)</f>
+        <v>$AE$16</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="T20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="U20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="36"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="T21" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="U21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA986D01-453F-4167-9E98-0CE9A780F858}">
   <dimension ref="A1:AJ18"/>
   <sheetViews>
